--- a/testData/HackathonData.xlsx
+++ b/testData/HackathonData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="29">
   <si>
     <t>R.Name</t>
   </si>
@@ -177,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -207,6 +207,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -574,7 +596,7 @@
       <c r="I2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="J2" t="s" s="31">
+      <c r="J2" t="s" s="53">
         <v>27</v>
       </c>
     </row>
@@ -606,7 +628,7 @@
       <c r="I3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J3" t="s" s="32">
+      <c r="J3" t="s" s="54">
         <v>28</v>
       </c>
     </row>
@@ -638,7 +660,7 @@
       <c r="I4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="J4" t="s" s="33">
+      <c r="J4" t="s" s="55">
         <v>27</v>
       </c>
     </row>
@@ -670,7 +692,7 @@
       <c r="I5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J5" t="s" s="34">
+      <c r="J5" t="s" s="56">
         <v>28</v>
       </c>
     </row>
@@ -702,7 +724,7 @@
       <c r="I6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="J6" t="s" s="35">
+      <c r="J6" t="s" s="57">
         <v>27</v>
       </c>
     </row>
@@ -734,7 +756,7 @@
       <c r="I7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="J7" t="s" s="36">
+      <c r="J7" t="s" s="58">
         <v>27</v>
       </c>
     </row>
